--- a/Documentación/Rubricas.xlsx
+++ b/Documentación/Rubricas.xlsx
@@ -322,6 +322,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,9 +333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -870,10 +870,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -941,7 +941,7 @@
       <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>4</v>
       </c>
     </row>
@@ -967,7 +967,9 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
@@ -979,7 +981,9 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
@@ -991,7 +995,9 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -1003,7 +1009,9 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -1027,7 +1035,9 @@
       <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -1039,7 +1049,9 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
@@ -1063,7 +1075,9 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -1075,7 +1089,9 @@
       <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>4</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -1087,7 +1103,9 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>4</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
@@ -1123,7 +1141,9 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -1135,7 +1155,9 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8">
+        <v>5</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -1159,7 +1181,9 @@
       <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
@@ -1171,7 +1195,9 @@
       <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -1183,7 +1209,9 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8">
+        <v>4</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
@@ -1257,10 +1285,10 @@
       </c>
       <c r="D32" s="11">
         <f>SUM(D3:D31)</f>
-        <v>36</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentación/Rubricas.xlsx
+++ b/Documentación/Rubricas.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1117,9 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
@@ -1129,7 +1131,9 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="D32" s="11">
         <f>SUM(D3:D31)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
